--- a/Recommended resource reservations.xlsx
+++ b/Recommended resource reservations.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="91">
   <si>
     <t>Recommendations for reserving resources in CSC runs of the PREBAS model</t>
   </si>
@@ -492,6 +492,12 @@
   <si>
     <t>1.9_ForUnc_FSV_combineSplit</t>
   </si>
+  <si>
+    <t>20 split</t>
+  </si>
+  <si>
+    <t>split 20</t>
+  </si>
 </sst>
 </file>
 
@@ -694,7 +700,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
@@ -732,6 +738,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
@@ -8692,7 +8700,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8724,6 +8732,11 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -8770,7 +8783,10 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G4" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H4" s="36">
+        <v>30</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
@@ -8797,6 +8813,9 @@
       <c r="G5">
         <v>30</v>
       </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
@@ -8819,8 +8838,11 @@
       <c r="F6">
         <v>15000</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>86</v>
+      <c r="G6" s="31">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -8829,6 +8851,9 @@
       <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="G7" s="32" t="s">
         <v>87</v>
       </c>
